--- a/me/2.typescript/2.Variable-Data Type.xlsx
+++ b/me/2.typescript/2.Variable-Data Type.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9FEA22-6C1B-4D83-A056-92DA182BD0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BBCF5E-B604-4A7F-B972-E9FFEB091FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic type" sheetId="1" r:id="rId1"/>
+    <sheet name="Array" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="66">
   <si>
     <t>new 構成</t>
   </si>
@@ -169,6 +170,116 @@
   </si>
   <si>
     <t>let elm = "ABC";</t>
+  </si>
+  <si>
+    <t>02-array.ts</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/03_variable/02-array.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>        …</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\03_variable\02-array.ts</t>
+  </si>
+  <si>
+    <t>console.log(arrNumber);</t>
+  </si>
+  <si>
+    <t>console.log(arrString);</t>
+  </si>
+  <si>
+    <t>console.log(arrString.push("typescript"));      // 4</t>
+  </si>
+  <si>
+    <t>console.log(arrString); // "java", "android", "es6", "typescript"</t>
+  </si>
+  <si>
+    <r>
+      <t>let arrNumber: Array&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; = [1, 5, 8];</t>
+    </r>
+  </si>
+  <si>
+    <t>kiểu dữ liệu của array này là number nghĩa là array này dùng để lưu trữ các giá trị kiểu số</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let arrString: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = ["java", "android", "es6"];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Các khai báo thứ 2 này là cách khai báo ngắn gọn của </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>let arrString: Array&lt;string&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Trả về chiều dài mới của mảng</t>
+  </si>
+  <si>
+    <t>02-array.js</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\03_variable\02-array.js</t>
+  </si>
+  <si>
+    <t>let arrNumber = [1, 5, 8];</t>
+  </si>
+  <si>
+    <t>let arrString = ["java", "android", "es6"];</t>
+  </si>
+  <si>
+    <t>console.log(arrString.push("typescript")); // 4</t>
   </si>
 </sst>
 </file>
@@ -672,6 +783,470 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561155</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B591A7F-C0E2-2F1C-7601-30D64CA90B21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="8229600"/>
+          <a:ext cx="6561905" cy="895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{128A1CDF-47F3-1EDE-2377-CE066CEF7248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="9172575"/>
+          <a:ext cx="2076450" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E703BC87-E860-6A87-CF78-B7EEC4650547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2552700" y="11582400"/>
+          <a:ext cx="542925" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1DC3E6-4FAE-CA36-6A09-8C255B0418CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2990850" y="4943475"/>
+          <a:ext cx="9525" cy="8439150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>532744</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>161674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D1AF963-2950-AECE-992D-DDF0D30C4474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257925" y="12630150"/>
+          <a:ext cx="5247619" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB1C383-6A8D-4A47-E0FF-653DBD9924F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2114550" y="13249275"/>
+          <a:ext cx="4495800" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DC7C94-5B5C-D183-099C-66FC401DA9BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1952625" y="13468350"/>
+          <a:ext cx="4686300" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0146ABD-B863-7234-F66D-E636350855B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3352800" y="13687425"/>
+          <a:ext cx="3257550" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AEAD9E5-0243-76BB-5951-37E7FFCB58EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4295775" y="13868400"/>
+          <a:ext cx="2362200" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -937,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,4 +2107,559 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C17B0E6-1443-439D-B865-48700B86126B}">
+  <dimension ref="A3:J77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="E11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="D18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="5"/>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="5"/>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="5"/>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="E59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="D67" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.typescript/2.Variable-Data Type.xlsx
+++ b/me/2.typescript/2.Variable-Data Type.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BBCF5E-B604-4A7F-B972-E9FFEB091FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E927782A-5C24-4FAF-805A-BC73E498E5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic type" sheetId="1" r:id="rId1"/>
     <sheet name="Array" sheetId="2" r:id="rId2"/>
+    <sheet name="Tuple" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="76">
   <si>
     <t>new 構成</t>
   </si>
@@ -280,6 +281,36 @@
   </si>
   <si>
     <t>console.log(arrString.push("typescript")); // 4</t>
+  </si>
+  <si>
+    <t>03-tuple.ts</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/03_variable/03-tuple.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\03_variable\03-tuple.ts</t>
+  </si>
+  <si>
+    <t>let x: [string, number, boolean];</t>
+  </si>
+  <si>
+    <t>x = ["abc", 10, true];</t>
+  </si>
+  <si>
+    <t>console.log(x);</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\03_variable\03-tuple.js</t>
+  </si>
+  <si>
+    <t>let x;</t>
+  </si>
+  <si>
+    <t>03-tuple.js</t>
+  </si>
+  <si>
+    <t>Giúp dàng buộc kiểu dữ liệu của các phần tử trong 1 array nào đó</t>
   </si>
 </sst>
 </file>
@@ -1219,6 +1250,311 @@
         <a:xfrm flipV="1">
           <a:off x="4295775" y="13868400"/>
           <a:ext cx="2362200" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>551630</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84038C7E-73B1-4904-87D9-BB901570B078}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="8048625"/>
+          <a:ext cx="6561905" cy="895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A4103C0-9662-C9D8-D404-B34BFE74D87A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="8972550"/>
+          <a:ext cx="2247900" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F87BB3-CB61-5E02-96A0-3C3CF5A28D0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2600325" y="11601450"/>
+          <a:ext cx="733425" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3213FD3-1589-DB0E-6832-9A4D871F55C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1114425" y="371475"/>
+          <a:ext cx="257175" cy="6172200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>408919</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>190325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C30F782-F869-B56E-D168-DFD89F32B0A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="13077825"/>
+          <a:ext cx="5247619" cy="1400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7177E123-3746-22E1-9CFC-AE03DC29AE6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1543050" y="13716000"/>
+          <a:ext cx="4362450" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2113,8 +2449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C17B0E6-1443-439D-B865-48700B86126B}">
   <dimension ref="A3:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2662,4 +2998,500 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A655392-F132-452B-9396-003DE9956D67}">
+  <dimension ref="A2:I76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="E12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="5"/>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="E59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="D69" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="7"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.typescript/2.Variable-Data Type.xlsx
+++ b/me/2.typescript/2.Variable-Data Type.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E927782A-5C24-4FAF-805A-BC73E498E5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00644478-8899-4FBC-A92E-4D437A7F5B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic type" sheetId="1" r:id="rId1"/>
     <sheet name="Array" sheetId="2" r:id="rId2"/>
     <sheet name="Tuple" sheetId="3" r:id="rId3"/>
+    <sheet name="Enum" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="93">
   <si>
     <t>new 構成</t>
   </si>
@@ -311,6 +312,79 @@
   </si>
   <si>
     <t>Giúp dàng buộc kiểu dữ liệu của các phần tử trong 1 array nào đó</t>
+  </si>
+  <si>
+    <t>04-enum.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\03_variable\04-enum.ts</t>
+  </si>
+  <si>
+    <t>// 100 created, 101 proccess, 102 finish</t>
+  </si>
+  <si>
+    <t>enum STATUS { created = 100, process = 900, finish = 500};</t>
+  </si>
+  <si>
+    <t>console.log(todoStatus);</t>
+  </si>
+  <si>
+    <t>04-enum.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/03_variable/04-enum.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\03_variable\04-enum.js</t>
+  </si>
+  <si>
+    <t>var STATUS;</t>
+  </si>
+  <si>
+    <t>(function (STATUS) {</t>
+  </si>
+  <si>
+    <t>    STATUS[STATUS["created"] = 100] = "created";</t>
+  </si>
+  <si>
+    <t>    STATUS[STATUS["process"] = 900] = "process";</t>
+  </si>
+  <si>
+    <t>    STATUS[STATUS["finish"] = 500] = "finish";</t>
+  </si>
+  <si>
+    <t>})(STATUS || (STATUS = {}));</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>let todoStatus = STATUS.finish;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let todoStatus : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = STATUS.finish;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1555,6 +1629,311 @@
         <a:xfrm flipV="1">
           <a:off x="1543050" y="13716000"/>
           <a:ext cx="4362450" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>551625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>18937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D32E24-3486-636E-F8FB-0BAB78FC0694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="6924675"/>
+          <a:ext cx="6600000" cy="904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>418444</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1516B0EB-93D4-0DC0-E24D-48FFA3A1E07F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534025" y="14716125"/>
+          <a:ext cx="5247619" cy="1400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C37842A-CA6C-BF8A-8A3A-9ECC30CDFFCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2124075" y="15373350"/>
+          <a:ext cx="3771900" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE7A693-4F69-AD5D-131D-A8EAF3B85D2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="7848600"/>
+          <a:ext cx="2171700" cy="2695575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F44715-F8DE-3474-6975-9DE5EFC8C334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3000375" y="10668000"/>
+          <a:ext cx="333375" cy="2952750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBA9775-87B0-58DA-55CC-12E5BC6AB5A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="5286375"/>
+          <a:ext cx="476250" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3004,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A655392-F132-452B-9396-003DE9956D67}">
   <dimension ref="A2:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3303,12 +3682,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
@@ -3318,49 +3697,49 @@
       <c r="F52" s="2"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" t="s">
         <v>2</v>
       </c>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" t="s">
         <v>3</v>
       </c>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="D55" t="s">
         <v>4</v>
       </c>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="D56" t="s">
         <v>5</v>
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="D57" t="s">
         <v>6</v>
       </c>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="D58" t="s">
         <v>7</v>
       </c>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="E59" s="10" t="s">
         <v>14</v>
@@ -3368,7 +3747,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10" t="s">
@@ -3376,7 +3755,7 @@
       </c>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10" t="s">
@@ -3384,22 +3763,28 @@
       </c>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="E62" s="10"/>
       <c r="F62" s="6" t="s">
         <v>74</v>
       </c>
       <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="D63" t="s">
         <v>8</v>
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="E64" t="s">
         <v>13</v>
@@ -3494,4 +3879,621 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF40AC0-AB62-4FC5-9361-0C202D7E63A6}">
+  <dimension ref="A3:I87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="E11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="D22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="5"/>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="E52" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="D64" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.typescript/2.Variable-Data Type.xlsx
+++ b/me/2.typescript/2.Variable-Data Type.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00644478-8899-4FBC-A92E-4D437A7F5B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73976725-4CB7-4A02-A15E-E50F2937C80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic type" sheetId="1" r:id="rId1"/>
     <sheet name="Array" sheetId="2" r:id="rId2"/>
     <sheet name="Tuple" sheetId="3" r:id="rId3"/>
     <sheet name="Enum" sheetId="4" r:id="rId4"/>
+    <sheet name="Any" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="108">
   <si>
     <t>new 構成</t>
   </si>
@@ -385,6 +386,51 @@
       </rPr>
       <t xml:space="preserve"> = STATUS.finish;</t>
     </r>
+  </si>
+  <si>
+    <t>Khai báo 1 biến thuộc về kiểu dữ liệu any nếu như chưa xác định được biến này nó mang giá trị thuộc về kiểu số, kiểu chuỗi  hay kiểu gì</t>
+  </si>
+  <si>
+    <t>05-any.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\03_variable\05-any.ts</t>
+  </si>
+  <si>
+    <t>let mVariable: any = 4;</t>
+  </si>
+  <si>
+    <t>mVariable = "ABC";</t>
+  </si>
+  <si>
+    <t>mVariable = true;</t>
+  </si>
+  <si>
+    <t>let mArray: any[] = [1, true, "abc"];</t>
+  </si>
+  <si>
+    <t>console.log(mVariable);</t>
+  </si>
+  <si>
+    <t>console.log(mArray);</t>
+  </si>
+  <si>
+    <t>05-any.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/03_variable/05-any.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\03_variable\05-any.js</t>
+  </si>
+  <si>
+    <t>let mVariable = 4;</t>
+  </si>
+  <si>
+    <t>let mArray = [1, true, "abc"];</t>
+  </si>
+  <si>
+    <t>Nếu như khai báo biến mVariable thuộc kiểu number thì sau đó sẽ ko gán lại được cho nó giá trị kiểu chuỗi hay kiểu khác được</t>
   </si>
 </sst>
 </file>
@@ -1934,6 +1980,417 @@
         <a:xfrm>
           <a:off x="1209675" y="5286375"/>
           <a:ext cx="476250" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>599250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4F699E-2213-2ABA-1699-10D48293A41F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="8058150"/>
+          <a:ext cx="6600000" cy="942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD31291-5BE1-FAC2-64F5-1DC8DC8900BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="9029700"/>
+          <a:ext cx="2047875" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C67E77E-EEAD-917D-229E-D2212E727225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3019425" y="11963400"/>
+          <a:ext cx="314325" cy="2952750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>427971</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>171227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987CE964-2D10-1684-30E0-50D0B40FB19E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="15344775"/>
+          <a:ext cx="5228571" cy="1780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB19F595-2F1B-0E76-1E20-BC7E3A81AEEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1781175" y="5695950"/>
+          <a:ext cx="2505075" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9217D9-A5A2-F8EB-B64F-B1AFBB300582}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1676400" y="5695950"/>
+          <a:ext cx="2647950" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F12413E-1DB1-95AE-55A6-BD103CADE301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2095500" y="16202025"/>
+          <a:ext cx="3838575" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6FCB0B-7034-48FF-14B9-6EAD00E44AC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1933575" y="16392525"/>
+          <a:ext cx="4019550" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3885,8 +4342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF40AC0-AB62-4FC5-9361-0C202D7E63A6}">
   <dimension ref="A3:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4496,4 +4953,621 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6E012A-CCCE-418A-92C9-5BC7F12F34F2}">
+  <dimension ref="A2:I90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="E12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="H30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="E58" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="D71" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.typescript/2.Variable-Data Type.xlsx
+++ b/me/2.typescript/2.Variable-Data Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73976725-4CB7-4A02-A15E-E50F2937C80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77522E9-FC2E-4AB6-A440-3E81BFFF92C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic type" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Tuple" sheetId="3" r:id="rId3"/>
     <sheet name="Enum" sheetId="4" r:id="rId4"/>
     <sheet name="Any" sheetId="5" r:id="rId5"/>
+    <sheet name="Void" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="121">
   <si>
     <t>new 構成</t>
   </si>
@@ -431,6 +432,45 @@
   </si>
   <si>
     <t>Nếu như khai báo biến mVariable thuộc kiểu number thì sau đó sẽ ko gán lại được cho nó giá trị kiểu chuỗi hay kiểu khác được</t>
+  </si>
+  <si>
+    <t>06-void.ts</t>
+  </si>
+  <si>
+    <t>function showInfo(): void{</t>
+  </si>
+  <si>
+    <t>    console.log("Hello void");</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>showInfo();</t>
+  </si>
+  <si>
+    <t>let abc:number;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\03_variable\06-void.ts</t>
+  </si>
+  <si>
+    <t>06-void.js</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\03_variable\06-void.js</t>
+  </si>
+  <si>
+    <t>function showInfo() {</t>
+  </si>
+  <si>
+    <t>let abc;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểu void thường dùng để quyết định kiểu trả về của 1 function nào đó. Trong trường hợp 1 phương thức hay function ko có </t>
+  </si>
+  <si>
+    <t>kiểu trả về thì thường khai báo kiểu trả về là kiểu void</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +2157,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2164,13 +2204,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>427971</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>171227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2314,13 +2354,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2367,13 +2407,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2391,6 +2431,311 @@
         <a:xfrm flipV="1">
           <a:off x="1933575" y="16392525"/>
           <a:ext cx="4019550" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161078</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B314B55-7CB8-E47C-1209-C3ED0606BAAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="7848600"/>
+          <a:ext cx="6771428" cy="885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB3618C-61AC-953F-7F29-6255F6BE25DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="8772525"/>
+          <a:ext cx="2028825" cy="3095625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8204E819-1A99-5794-72E3-191DF1552B42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2809875" y="11972925"/>
+          <a:ext cx="609600" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281FE66E-93E6-E618-734A-7DDF9D3789C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2038350" y="552450"/>
+          <a:ext cx="1524000" cy="5429250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>408923</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>152235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E497D775-C904-6F09-6704-011656D82591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553075" y="14449425"/>
+          <a:ext cx="5219048" cy="1323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B7958A-485D-2779-0010-1C99BC3D6493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2314575" y="15039975"/>
+          <a:ext cx="3581400" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4342,7 +4687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF40AC0-AB62-4FC5-9361-0C202D7E63A6}">
   <dimension ref="A3:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
@@ -4957,10 +5302,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6E012A-CCCE-418A-92C9-5BC7F12F34F2}">
-  <dimension ref="A2:I90"/>
+  <dimension ref="A2:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5431,51 +5776,50 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="D72" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8" t="s">
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="7"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="5"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -5484,8 +5828,8 @@
       <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="11" t="s">
-        <v>103</v>
+      <c r="B79" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -5494,8 +5838,8 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="s">
-        <v>25</v>
+      <c r="B80" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -5504,39 +5848,41 @@
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="5"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
@@ -5544,7 +5890,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
@@ -5552,19 +5898,585 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B89" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
       <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="9"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85EB31F-3931-4B3F-9A6D-D06849BB1D79}">
+  <dimension ref="A2:I83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="D27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="E58" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="D74" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="7"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/2.typescript/2.Variable-Data Type.xlsx
+++ b/me/2.typescript/2.Variable-Data Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77522E9-FC2E-4AB6-A440-3E81BFFF92C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AB6B7E-66F0-4B8A-BADD-9E59D43559CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic type" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Enum" sheetId="4" r:id="rId4"/>
     <sheet name="Any" sheetId="5" r:id="rId5"/>
     <sheet name="Void" sheetId="6" r:id="rId6"/>
+    <sheet name="Type assertions" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="144">
   <si>
     <t>new 構成</t>
   </si>
@@ -471,6 +472,97 @@
   </si>
   <si>
     <t>kiểu trả về thì thường khai báo kiểu trả về là kiểu void</t>
+  </si>
+  <si>
+    <t>07-type-assertion.ts</t>
+  </si>
+  <si>
+    <t>edit code</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Ở phần này sẽ khai báo biến là mVariable do trùng tên biến với 05-any.ts nên sẽ comment lại code ở 05-any.ts</t>
+  </si>
+  <si>
+    <t>comment code</t>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\03_variable\07-type-assertion.ts</t>
+  </si>
+  <si>
+    <t>// let total    = mVariable.length;</t>
+  </si>
+  <si>
+    <t>// let total    = (&lt;string&gt;mVariable).length;</t>
+  </si>
+  <si>
+    <t>let total   = (mVariable as string).length</t>
+  </si>
+  <si>
+    <t>console.log(total);</t>
+  </si>
+  <si>
+    <t>Giúp chuyển đổi qua lại giữa các kiểu dữ liệu với nhau</t>
+  </si>
+  <si>
+    <r>
+      <t>let mVariable:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> any</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = "Typescript training";</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> any: Nghĩa là nó có thể lưu trữ dữ liệu kiểu chữ, số…</t>
+  </si>
+  <si>
+    <t>Với cách viết này thì biến mVariable chữa phải là phải là kiểu dữ liệu thuộc về kiểu string mà nó là any</t>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>Chuyển kiểu dữ liệu của mVariable về kiểu string sau đấy mới lấy độ dài của nó</t>
+  </si>
+  <si>
+    <t>Cũng là 1 cách để chuyển đổi mVariable về kiểu string</t>
+  </si>
+  <si>
+    <t>07-type-assertion.js</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\03_variable\07-type-assertion.js</t>
+  </si>
+  <si>
+    <t>let mVariable = "Typescript training";</t>
+  </si>
+  <si>
+    <t>let total = mVariable.length;</t>
   </si>
 </sst>
 </file>
@@ -593,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -608,6 +700,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2465,13 +2565,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>161078</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>161814</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2509,13 +2609,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2562,13 +2662,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2621,7 +2721,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2668,13 +2768,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>408923</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>152235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2712,13 +2812,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2736,6 +2836,417 @@
         <a:xfrm flipV="1">
           <a:off x="2314575" y="15039975"/>
           <a:ext cx="3581400" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F43AB8B-033A-04D5-AB2E-F0AF1A559150}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5810250" y="4924425"/>
+          <a:ext cx="371475" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DB33C6-7C9B-D549-5211-E40E8BD5C5A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2876550" y="4943475"/>
+          <a:ext cx="2066925" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B8C62CE-F19B-5E62-E068-8282C335414B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2438400" y="5314950"/>
+          <a:ext cx="704850" cy="3505200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>589725</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D42B1149-3A6C-BB45-F191-5204597C0873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="11096625"/>
+          <a:ext cx="6600000" cy="895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DEF211A-26F4-80A7-2350-4482CE6EB888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="12068175"/>
+          <a:ext cx="2057400" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F770E5-FB77-F0EA-566B-86670D1D8759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2771775" y="15430500"/>
+          <a:ext cx="457200" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>570848</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>161718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CC44ED-7523-F0B2-B999-2936629CAC3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="17554575"/>
+          <a:ext cx="5219048" cy="1657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD731AD6-7D9A-35E2-4435-7D4EDB557593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1752600" y="18459450"/>
+          <a:ext cx="3686175" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5305,7 +5816,7 @@
   <dimension ref="A2:I91"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5928,10 +6439,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85EB31F-3931-4B3F-9A6D-D06849BB1D79}">
-  <dimension ref="A2:I83"/>
+  <dimension ref="A2:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6045,34 +6556,33 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="D18" t="s">
-        <v>8</v>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="E19" t="s">
-        <v>13</v>
+      <c r="D19" t="s">
+        <v>8</v>
       </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="10"/>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="E21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="10"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -6080,7 +6590,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -6089,7 +6599,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -6098,16 +6608,16 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -6115,348 +6625,349 @@
       <c r="B26" s="4"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>108</v>
+      <c r="F26" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" t="s">
         <v>17</v>
       </c>
       <c r="I27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="D28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="D54" t="s">
-        <v>4</v>
-      </c>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="D58" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
-      <c r="E58" s="10" t="s">
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="E59" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="F59" s="10"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="E64" s="10"/>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" t="s">
+      <c r="G65" s="5"/>
+      <c r="H65" t="s">
         <v>17</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="4"/>
-      <c r="D65" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="D66" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="4"/>
-      <c r="E66" t="s">
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="E67" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="4"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="10"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="E68" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="10"/>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
       <c r="F71" s="10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
       <c r="F73" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="4"/>
-      <c r="D74" s="10" t="s">
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="D75" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="7"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8" t="s">
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="7"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="5"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="3"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
@@ -6464,19 +6975,864 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
       <c r="E82" s="5"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="9"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B008472-E5F0-4506-BD2F-2D773CD939FC}">
+  <dimension ref="A2:O101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="E12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="D29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="3"/>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="5"/>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="5"/>
+      <c r="H51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="5"/>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="5"/>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="9"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="16"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="18"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="18"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="18"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="18"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="18"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="18"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="18"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="18"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G76" s="18"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G77" s="18"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G78" s="18"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G79" s="18"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G80" s="18"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G81" s="18"/>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="18"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="G83" s="18"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="18"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="18"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G86" s="18"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G87" s="18"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G88" s="18"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G89" s="18"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G90" s="18"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G91" s="18"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="18"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="21"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/2.typescript/2.Variable-Data Type.xlsx
+++ b/me/2.typescript/2.Variable-Data Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AB6B7E-66F0-4B8A-BADD-9E59D43559CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F49CE9-E86A-401C-8ABB-CECE90A486D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic type" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Any" sheetId="5" r:id="rId5"/>
     <sheet name="Void" sheetId="6" r:id="rId6"/>
     <sheet name="Type assertions" sheetId="7" r:id="rId7"/>
+    <sheet name="Interface object" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="177">
   <si>
     <t>new 構成</t>
   </si>
@@ -563,6 +564,105 @@
   </si>
   <si>
     <t>let total = mVariable.length;</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/03_variable/06-void.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/03_variable/07-type-assertion.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>08-interface-object.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\03_variable\08-interface-object.ts</t>
+  </si>
+  <si>
+    <t>let objOne: any = {};</t>
+  </si>
+  <si>
+    <t>console.log(objOne);</t>
+  </si>
+  <si>
+    <t>interface CourseInterface {</t>
+  </si>
+  <si>
+    <t>    name: string;</t>
+  </si>
+  <si>
+    <t>    time: string;</t>
+  </si>
+  <si>
+    <t>    free?: boolean;</t>
+  </si>
+  <si>
+    <t>let objTwo: CourseInterface;</t>
+  </si>
+  <si>
+    <t>objTwo = {</t>
+  </si>
+  <si>
+    <t>    name: "ES6",</t>
+  </si>
+  <si>
+    <t>    time: "5h"</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>let objThree: CourseInterface = {</t>
+  </si>
+  <si>
+    <t>    name: "Typescript",</t>
+  </si>
+  <si>
+    <t>    time: "10h",</t>
+  </si>
+  <si>
+    <t>    free: false</t>
+  </si>
+  <si>
+    <t>console.log(objTwo);</t>
+  </si>
+  <si>
+    <t>console.log(objThree);</t>
+  </si>
+  <si>
+    <t>08-interface-object.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/03_variable/08-interface-object.js&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\03_variable\08-interface-object.js</t>
+  </si>
+  <si>
+    <t>let objOne = {};</t>
+  </si>
+  <si>
+    <t>let objTwo;</t>
+  </si>
+  <si>
+    <t>let objThree = {</t>
+  </si>
+  <si>
+    <t>Đối tượng kiểu này là 1 đối tượng chung chung</t>
+  </si>
+  <si>
+    <t>Để tạo đối tượng chứa thông tin của 1 khóa học nào đó(có tên khóa học, thời lượng khóa học)</t>
+  </si>
+  <si>
+    <t>Đối tượng kiểu Interface Object mà mình đã định nghĩa</t>
+  </si>
+  <si>
+    <t>Thuộc tính free là thuộc tính ko bắt buộc có thể có cũng được ko có cũng được</t>
+  </si>
+  <si>
+    <t>Ko cần có thuộc tính free</t>
+  </si>
+  <si>
+    <t>Có thuộc tính free</t>
   </si>
 </sst>
 </file>
@@ -685,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -708,6 +808,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2660,8 +2762,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
@@ -2669,7 +2771,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2684,8 +2786,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2809875" y="11972925"/>
-          <a:ext cx="609600" cy="2209800"/>
+          <a:off x="2009775" y="12353925"/>
+          <a:ext cx="1409700" cy="2552700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2767,15 +2869,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>408923</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>152235</xdr:rowOff>
+      <xdr:colOff>427973</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>47460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2798,7 +2900,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5553075" y="14449425"/>
+          <a:off x="5572125" y="15106650"/>
           <a:ext cx="5219048" cy="1323810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2812,13 +2914,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2833,9 +2935,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2314575" y="15039975"/>
-          <a:ext cx="3581400" cy="114300"/>
+        <a:xfrm>
+          <a:off x="2314575" y="15535275"/>
+          <a:ext cx="3619500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3124,8 +3226,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -3133,7 +3235,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3148,8 +3250,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2771775" y="15430500"/>
-          <a:ext cx="457200" cy="2743200"/>
+          <a:off x="1971675" y="15430500"/>
+          <a:ext cx="1257300" cy="2705100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3178,15 +3280,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>570848</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>161718</xdr:rowOff>
+      <xdr:colOff>523223</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>28368</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3209,7 +3311,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5105400" y="17554575"/>
+          <a:off x="5057775" y="17992725"/>
           <a:ext cx="5219048" cy="1657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3223,13 +3325,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3247,6 +3349,629 @@
         <a:xfrm flipV="1">
           <a:off x="1752600" y="18459450"/>
           <a:ext cx="3686175" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65833</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCCD017-6866-1486-D828-6C7FEF748787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="11715750"/>
+          <a:ext cx="6733333" cy="923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC280339-A150-0999-CF2A-339F2EE9686E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3676650" y="16373475"/>
+          <a:ext cx="438150" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B25C949A-AF9B-DF9E-9F68-88AE741BBDC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="12639675"/>
+          <a:ext cx="2076450" cy="3609975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>380350</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>66406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF0C68A-AE21-4AF6-A1F1-3E55A3287AF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4933950" y="21155025"/>
+          <a:ext cx="5200000" cy="2152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06122901-2DB4-550F-8457-7DE6B2353134}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924050" y="21440775"/>
+          <a:ext cx="3352800" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{218DDDAB-A180-76EE-3712-261EC968E835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1952625" y="22221825"/>
+          <a:ext cx="3314700" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DA8E83-3109-5140-47FE-D75284856677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2019300" y="22555200"/>
+          <a:ext cx="3286125" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23097749-3135-F06B-6FEC-5D0E634A8729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1390650" y="7991475"/>
+          <a:ext cx="2809875" cy="2228850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732069DC-0C45-7434-161E-2CDCBBB823CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4257675" y="8029575"/>
+          <a:ext cx="19050" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4397EEE-B988-FBE6-90D0-A686A4508A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4267200" y="9172575"/>
+          <a:ext cx="9525" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B8AE61-0A56-E8DE-E0B6-C09B71147238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2343150" y="7381875"/>
+          <a:ext cx="1962150" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63D6FA7E-6359-A025-24A7-13C7D44BF944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1304925" y="7410450"/>
+          <a:ext cx="2990850" cy="2171700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4696,8 +5421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A655392-F132-452B-9396-003DE9956D67}">
   <dimension ref="A2:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:G31"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5816,7 +6541,7 @@
   <dimension ref="A2:I91"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6439,10 +7164,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85EB31F-3931-4B3F-9A6D-D06849BB1D79}">
-  <dimension ref="A2:I84"/>
+  <dimension ref="A2:I93"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6952,50 +7677,147 @@
       <c r="F76" s="8"/>
       <c r="G76" s="9"/>
     </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+    </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
-      <c r="E81" s="5"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
-      <c r="E82" s="5"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="s">
-        <v>112</v>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
-      <c r="E83" s="5"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="7" t="s">
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="9"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7005,10 +7827,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B008472-E5F0-4506-BD2F-2D773CD939FC}">
-  <dimension ref="A2:O101"/>
+  <dimension ref="A2:O112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7784,55 +8606,1299 @@
       <c r="F93" s="20"/>
       <c r="G93" s="21"/>
     </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+    </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="2"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="12"/>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
-      <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="4" t="s">
-        <v>143</v>
+      <c r="F99" s="12"/>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
-      <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="7" t="s">
+      <c r="F100" s="12"/>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="9"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61654C6-BDC2-42B8-895C-EAA2CCABEC58}">
+  <dimension ref="A4:J125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="O72" sqref="O72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="18"/>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="5"/>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="5"/>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="5"/>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="5"/>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="5"/>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="22"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G80" s="22"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G81" s="22"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G82" s="22"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G83" s="22"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G84" s="22"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G85" s="22"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G86" s="22"/>
+      <c r="H86" s="5"/>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="22"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G91" s="22"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G92" s="22"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G93" s="22"/>
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G94" s="22"/>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G95" s="22"/>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G96" s="22"/>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="10"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G97" s="22"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="10"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="9"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="9"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="5"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/2.typescript/2.Variable-Data Type.xlsx
+++ b/me/2.typescript/2.Variable-Data Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F49CE9-E86A-401C-8ABB-CECE90A486D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4408167-ACAE-4E36-8FC9-7F382798155A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic type" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Void" sheetId="6" r:id="rId6"/>
     <sheet name="Type assertions" sheetId="7" r:id="rId7"/>
     <sheet name="Interface object" sheetId="8" r:id="rId8"/>
+    <sheet name="Interface array" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="191">
   <si>
     <t>new 構成</t>
   </si>
@@ -663,6 +664,48 @@
   </si>
   <si>
     <t>Có thuộc tính free</t>
+  </si>
+  <si>
+    <t>09-interface-array.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\03_variable\09-interface-array.ts</t>
+  </si>
+  <si>
+    <t>// let course: string[] = ["es6", "typescript"];</t>
+  </si>
+  <si>
+    <t>interface CourseList {</t>
+  </si>
+  <si>
+    <t>    [index: number]: number;</t>
+  </si>
+  <si>
+    <t>let course: CourseList = [1, 2];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">console.log(course); </t>
+  </si>
+  <si>
+    <t>09-interface-array.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/03_variable/09-interface-array.js&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\03_variable\09-interface-array.js</t>
+  </si>
+  <si>
+    <t>let course = [1, 2];</t>
+  </si>
+  <si>
+    <t>console.log(course);</t>
+  </si>
+  <si>
+    <t>array chứa các phần tử thuộc về kiểu dữ liệu là kiểu chuỗi. Chỉ số của nó đã mặc định quy định là 1 kiểu number</t>
+  </si>
+  <si>
+    <t>Quy định chỉ số có kiểu dữ liệu là number, giá trị của phần tử có kiểu dữ liệu là number</t>
   </si>
 </sst>
 </file>
@@ -785,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -810,6 +853,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3972,6 +4017,311 @@
         <a:xfrm flipH="1">
           <a:off x="1304925" y="7410450"/>
           <a:ext cx="2990850" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>446861</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63222C74-CA7E-28AE-6CB5-CFB109FBB9D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="9563100"/>
+          <a:ext cx="6514286" cy="904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98499185-8A41-BDAA-3F5E-CD764B63C310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="10467975"/>
+          <a:ext cx="1828800" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84715D7D-8EDF-85BB-FD2E-52198D972F21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3600450" y="14258925"/>
+          <a:ext cx="428625" cy="3714750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>456534</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828D6E49-F975-A699-6053-DE81A5C2D3E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="8001000"/>
+          <a:ext cx="5323809" cy="2047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2B0C9A-1742-8B7C-B79A-27370BC57030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="7791450"/>
+          <a:ext cx="3886200" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B37341C-6F1B-8E04-6CA6-A25CFE49DB9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="7753350"/>
+          <a:ext cx="3648075" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8767,13 +9117,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61654C6-BDC2-42B8-895C-EAA2CCABEC58}">
   <dimension ref="A4:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="O72" sqref="O72"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -8784,7 +9134,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="14" t="s">
         <v>1</v>
@@ -8793,307 +9143,334 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="15"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="22"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="22"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="22"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="22"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="22"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="22"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="22"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="22"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="22"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="22"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="22"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="22"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="22"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G29" s="22"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" t="s">
+      <c r="G30" s="22"/>
+      <c r="H30" s="5"/>
+      <c r="I30" t="s">
         <v>17</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="18"/>
-      <c r="H31" t="s">
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="5"/>
+      <c r="I31" t="s">
         <v>17</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
@@ -9102,7 +9479,8 @@
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -9904,4 +10282,989 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15CFC84-501E-4889-8E5F-62F6D7BFDE8D}">
+  <dimension ref="A4:J110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="5"/>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="22"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73" s="22"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G74" s="22"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="22"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G76" s="22"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G77" s="22"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G78" s="22"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G79" s="22"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G80" s="22"/>
+      <c r="H80" s="5"/>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="22"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G85" s="22"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G86" s="22"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G87" s="22"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G88" s="22"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G89" s="22"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G90" s="22"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G91" s="22"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G92" s="22"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="9"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="9"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.typescript/2.Variable-Data Type.xlsx
+++ b/me/2.typescript/2.Variable-Data Type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4408167-ACAE-4E36-8FC9-7F382798155A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579427E2-FF25-4193-BD04-6D5347FACAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="191">
   <si>
     <t>new 構成</t>
   </si>
@@ -10288,8 +10288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15CFC84-501E-4889-8E5F-62F6D7BFDE8D}">
   <dimension ref="A4:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10450,7 +10450,7 @@
       <c r="G16" s="22"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="17"/>
       <c r="C17" s="22"/>
@@ -10462,7 +10462,7 @@
       <c r="G17" s="22"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="17"/>
       <c r="C18" s="22"/>
@@ -10474,7 +10474,7 @@
       <c r="G18" s="22"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="17"/>
       <c r="C19" s="22"/>
@@ -10486,7 +10486,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="17"/>
       <c r="C20" s="22"/>
@@ -10498,7 +10498,7 @@
       <c r="G20" s="22"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="17"/>
       <c r="C21" s="22"/>
@@ -10510,7 +10510,7 @@
       <c r="G21" s="22"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="17"/>
       <c r="C22" s="22"/>
@@ -10522,7 +10522,7 @@
       <c r="G22" s="22"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="17"/>
       <c r="C23" s="22"/>
@@ -10534,7 +10534,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="17"/>
       <c r="C24" s="22"/>
@@ -10546,7 +10546,7 @@
       <c r="G24" s="22"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="17"/>
       <c r="C25" s="22"/>
@@ -10558,7 +10558,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="17"/>
       <c r="C26" s="22"/>
@@ -10570,7 +10570,7 @@
       <c r="G26" s="22"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="17"/>
       <c r="C27" s="22"/>
@@ -10582,7 +10582,7 @@
       <c r="G27" s="22"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="17"/>
       <c r="C28" s="22"/>
@@ -10594,7 +10594,7 @@
       <c r="G28" s="22"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="17"/>
       <c r="C29" s="22"/>
@@ -10606,7 +10606,7 @@
       <c r="G29" s="22"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="17"/>
       <c r="C30" s="22"/>
@@ -10618,7 +10618,7 @@
       <c r="G30" s="22"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="17"/>
       <c r="C31" s="22"/>
@@ -10630,7 +10630,7 @@
       <c r="G31" s="22"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="17"/>
       <c r="C32" s="22"/>
@@ -10641,8 +10641,14 @@
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="17"/>
       <c r="C33" s="22"/>
@@ -10653,8 +10659,14 @@
       <c r="F33" s="23"/>
       <c r="G33" s="22"/>
       <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
@@ -10666,12 +10678,12 @@
       <c r="G34" s="20"/>
       <c r="H34" s="21"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>179</v>
       </c>
@@ -10686,14 +10698,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>180</v>
       </c>
@@ -10702,7 +10714,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>181</v>
       </c>
@@ -10717,7 +10729,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>111</v>
       </c>
@@ -10726,14 +10738,14 @@
       <c r="E42" s="12"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>182</v>
       </c>
@@ -10742,14 +10754,14 @@
       <c r="E44" s="12"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>183</v>
       </c>
